--- a/lockstep_algorithm/Results.xlsx
+++ b/lockstep_algorithm/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablum\Symbolic-SCCs\lockstep_algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{730B3E93-A9AD-41A1-B057-C7044E6CB1DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B191231-22B8-467C-B8FD-49E21095AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39485520-4A0B-427E-9E64-4FED19D4A5EB}"/>
   </bookViews>
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -103,6 +103,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,7 +180,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -186,6 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -500,37 +507,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78286C2-6484-4079-B3B6-3CDFA013CB9E}">
-  <dimension ref="A1:Z16"/>
+  <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.88671875" style="8" customWidth="1"/>
-    <col min="7" max="7" width="9.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.109375" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="7" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.21875" style="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" style="10" customWidth="1"/>
+    <col min="16" max="16" width="13.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.109375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,34 +556,34 @@
       <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="Q1" s="1" t="s">
@@ -585,20 +592,20 @@
       <c r="R1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="U1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" s="3" t="s">
+        <v>4</v>
+      </c>
       <c r="W1" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="X1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="Z1" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>17</v>
       </c>
@@ -617,34 +624,34 @@
       <c r="F2" s="6">
         <v>1144</v>
       </c>
-      <c r="G2" s="5">
-        <v>51</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="G2">
+        <v>67</v>
+      </c>
+      <c r="H2">
+        <v>1892</v>
+      </c>
+      <c r="I2" s="7">
+        <v>57</v>
+      </c>
+      <c r="J2" s="8">
+        <v>1254</v>
+      </c>
+      <c r="K2">
+        <v>45</v>
+      </c>
+      <c r="L2">
         <v>1914</v>
       </c>
-      <c r="I2" s="4">
-        <v>43</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1276</v>
-      </c>
-      <c r="K2" s="5">
-        <v>46</v>
-      </c>
-      <c r="L2" s="6">
-        <v>1936</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="M2" s="5">
         <v>63</v>
       </c>
-      <c r="N2" s="4">
+      <c r="N2" s="6">
         <v>1870</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="9">
         <v>61</v>
       </c>
-      <c r="P2" s="6">
+      <c r="P2" s="9">
         <v>1232</v>
       </c>
       <c r="Q2" s="5">
@@ -653,22 +660,20 @@
       <c r="R2" s="6">
         <v>1892</v>
       </c>
-      <c r="U2" s="9"/>
-      <c r="V2" s="9"/>
+      <c r="U2" s="5">
+        <v>70</v>
+      </c>
+      <c r="V2" s="6">
+        <v>3454</v>
+      </c>
       <c r="W2" s="5">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="X2" s="6">
-        <v>3454</v>
-      </c>
-      <c r="Y2" s="5">
-        <v>42</v>
-      </c>
-      <c r="Z2" s="6">
         <v>1280</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>24</v>
       </c>
@@ -687,34 +692,34 @@
       <c r="F3" s="8">
         <v>3335</v>
       </c>
-      <c r="G3" s="7">
-        <v>74</v>
-      </c>
-      <c r="H3" s="8">
+      <c r="G3">
+        <v>83</v>
+      </c>
+      <c r="H3">
+        <v>4263</v>
+      </c>
+      <c r="I3" s="7">
+        <v>84</v>
+      </c>
+      <c r="J3" s="8">
+        <v>4263</v>
+      </c>
+      <c r="K3">
+        <v>59</v>
+      </c>
+      <c r="L3">
         <v>4727</v>
       </c>
-      <c r="I3">
-        <v>73</v>
-      </c>
-      <c r="J3">
-        <v>4727</v>
-      </c>
-      <c r="K3" s="7">
-        <v>76</v>
-      </c>
-      <c r="L3" s="8">
-        <v>5191</v>
-      </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>95</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>3799</v>
       </c>
-      <c r="O3" s="7">
+      <c r="O3" s="10">
         <v>91</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="10">
         <v>3799</v>
       </c>
       <c r="Q3" s="7">
@@ -723,22 +728,22 @@
       <c r="R3" s="8">
         <v>4263</v>
       </c>
-      <c r="U3" s="10"/>
-      <c r="V3" s="10"/>
+      <c r="S3"/>
+      <c r="T3"/>
+      <c r="U3" s="7">
+        <v>461</v>
+      </c>
+      <c r="V3" s="8">
+        <v>53157</v>
+      </c>
       <c r="W3" s="7">
-        <v>461</v>
+        <v>58</v>
       </c>
       <c r="X3" s="8">
-        <v>53157</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>58</v>
-      </c>
-      <c r="Z3" s="8">
         <v>2316</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>31</v>
       </c>
@@ -757,34 +762,34 @@
       <c r="F4" s="8">
         <v>38171</v>
       </c>
-      <c r="G4" s="7">
-        <v>787</v>
-      </c>
-      <c r="H4" s="8">
-        <v>13284</v>
-      </c>
-      <c r="I4">
-        <v>568</v>
-      </c>
-      <c r="J4">
-        <v>9922</v>
-      </c>
-      <c r="K4" s="7">
-        <v>548</v>
-      </c>
-      <c r="L4" s="8">
-        <v>10865</v>
-      </c>
-      <c r="M4">
+      <c r="G4">
+        <v>439</v>
+      </c>
+      <c r="H4">
+        <v>11398</v>
+      </c>
+      <c r="I4" s="7">
+        <v>409</v>
+      </c>
+      <c r="J4" s="8">
+        <v>8036</v>
+      </c>
+      <c r="K4">
+        <v>378</v>
+      </c>
+      <c r="L4">
+        <v>8979</v>
+      </c>
+      <c r="M4" s="7">
         <v>419</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="8">
         <v>11234</v>
       </c>
-      <c r="O4" s="7">
+      <c r="O4" s="10">
         <v>464</v>
       </c>
-      <c r="P4" s="8">
+      <c r="P4" s="10">
         <v>7790</v>
       </c>
       <c r="Q4" s="7">
@@ -793,22 +798,22 @@
       <c r="R4" s="8">
         <v>8733</v>
       </c>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
+      <c r="S4"/>
+      <c r="T4"/>
+      <c r="U4" s="7">
+        <v>6764</v>
+      </c>
+      <c r="V4" s="8">
+        <v>529597</v>
+      </c>
       <c r="W4" s="7">
-        <v>6764</v>
+        <v>905</v>
       </c>
       <c r="X4" s="8">
-        <v>529597</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>905</v>
-      </c>
-      <c r="Z4" s="8">
         <v>43874</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>34</v>
       </c>
@@ -827,34 +832,34 @@
       <c r="F5" s="8">
         <v>8845</v>
       </c>
-      <c r="G5" s="7">
-        <v>1894</v>
-      </c>
-      <c r="H5" s="8">
-        <v>10498</v>
-      </c>
-      <c r="I5">
-        <v>1099</v>
-      </c>
-      <c r="J5">
-        <v>7511</v>
-      </c>
-      <c r="K5" s="7">
-        <v>1115</v>
-      </c>
-      <c r="L5" s="8">
-        <v>10933</v>
-      </c>
-      <c r="M5">
+      <c r="G5">
+        <v>830</v>
+      </c>
+      <c r="H5">
+        <v>9077</v>
+      </c>
+      <c r="I5" s="7">
+        <v>697</v>
+      </c>
+      <c r="J5" s="8">
+        <v>6090</v>
+      </c>
+      <c r="K5">
+        <v>948</v>
+      </c>
+      <c r="L5">
+        <v>9512</v>
+      </c>
+      <c r="M5" s="7">
         <v>814</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="8">
         <v>9077</v>
       </c>
-      <c r="O5" s="7">
+      <c r="O5" s="10">
         <v>784</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="10">
         <v>5974</v>
       </c>
       <c r="Q5" s="7">
@@ -863,22 +868,22 @@
       <c r="R5" s="8">
         <v>9483</v>
       </c>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
+      <c r="S5"/>
+      <c r="T5"/>
+      <c r="U5" s="7">
+        <v>2270</v>
+      </c>
+      <c r="V5" s="8">
+        <v>70615</v>
+      </c>
       <c r="W5" s="7">
-        <v>2270</v>
+        <v>782</v>
       </c>
       <c r="X5" s="8">
-        <v>70615</v>
-      </c>
-      <c r="Y5" s="7">
-        <v>782</v>
-      </c>
-      <c r="Z5" s="8">
         <v>20044</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>38</v>
       </c>
@@ -897,34 +902,34 @@
       <c r="F6" s="6">
         <v>3390</v>
       </c>
-      <c r="G6" s="5">
-        <v>117</v>
-      </c>
-      <c r="H6" s="6">
-        <v>4294</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="G6">
+        <v>85</v>
+      </c>
+      <c r="H6">
+        <v>4181</v>
+      </c>
+      <c r="I6" s="7">
+        <v>107</v>
+      </c>
+      <c r="J6" s="8">
+        <v>4633</v>
+      </c>
+      <c r="K6">
+        <v>106</v>
+      </c>
+      <c r="L6">
+        <v>5650</v>
+      </c>
+      <c r="M6" s="5">
+        <v>81</v>
+      </c>
+      <c r="N6" s="6">
+        <v>4068</v>
+      </c>
+      <c r="O6" s="9">
         <v>115</v>
       </c>
-      <c r="J6" s="4">
-        <v>4746</v>
-      </c>
-      <c r="K6" s="5">
-        <v>117</v>
-      </c>
-      <c r="L6" s="6">
-        <v>5763</v>
-      </c>
-      <c r="M6" s="4">
-        <v>81</v>
-      </c>
-      <c r="N6" s="4">
-        <v>4068</v>
-      </c>
-      <c r="O6" s="5">
-        <v>115</v>
-      </c>
-      <c r="P6" s="6">
+      <c r="P6" s="9">
         <v>4520</v>
       </c>
       <c r="Q6" s="5">
@@ -933,22 +938,20 @@
       <c r="R6" s="6">
         <v>5537</v>
       </c>
-      <c r="U6" s="9"/>
-      <c r="V6" s="9"/>
+      <c r="U6" s="5">
+        <v>2387</v>
+      </c>
+      <c r="V6" s="6">
+        <v>178992</v>
+      </c>
       <c r="W6" s="5">
-        <v>2387</v>
+        <v>42</v>
       </c>
       <c r="X6" s="6">
-        <v>178992</v>
-      </c>
-      <c r="Y6" s="5">
-        <v>42</v>
-      </c>
-      <c r="Z6" s="6">
         <v>2230</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>40</v>
       </c>
@@ -967,34 +970,34 @@
       <c r="F7" s="8">
         <v>127155</v>
       </c>
-      <c r="G7" s="7">
-        <v>2820</v>
-      </c>
-      <c r="H7" s="8">
+      <c r="G7">
+        <v>1792</v>
+      </c>
+      <c r="H7">
+        <v>152243</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1869</v>
+      </c>
+      <c r="J7" s="8">
+        <v>152243</v>
+      </c>
+      <c r="K7">
+        <v>1689</v>
+      </c>
+      <c r="L7">
         <v>164787</v>
       </c>
-      <c r="I7">
-        <v>2366</v>
-      </c>
-      <c r="J7">
-        <v>164787</v>
-      </c>
-      <c r="K7" s="7">
-        <v>2513</v>
-      </c>
-      <c r="L7" s="8">
-        <v>177331</v>
-      </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>1624</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="8">
         <v>139699</v>
       </c>
-      <c r="O7" s="7">
+      <c r="O7" s="10">
         <v>2561</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="10">
         <v>139699</v>
       </c>
       <c r="Q7" s="7">
@@ -1003,22 +1006,22 @@
       <c r="R7" s="8">
         <v>152243</v>
       </c>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7" s="7">
+        <v>310548</v>
+      </c>
+      <c r="V7" s="8">
+        <v>25442809</v>
+      </c>
       <c r="W7" s="7">
-        <v>310548</v>
+        <v>716</v>
       </c>
       <c r="X7" s="8">
-        <v>25442809</v>
-      </c>
-      <c r="Y7" s="7">
-        <v>716</v>
-      </c>
-      <c r="Z7" s="8">
         <v>63220</v>
       </c>
     </row>
-    <row r="8" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>41</v>
       </c>
@@ -1037,34 +1040,34 @@
       <c r="F8" s="6">
         <v>4064</v>
       </c>
-      <c r="G8" s="5">
-        <v>147</v>
-      </c>
-      <c r="H8" s="6">
-        <v>5080</v>
-      </c>
-      <c r="I8" s="4">
-        <v>131</v>
-      </c>
-      <c r="J8" s="4">
-        <v>5588</v>
-      </c>
-      <c r="K8" s="5">
-        <v>134</v>
-      </c>
-      <c r="L8" s="6">
-        <v>6858</v>
-      </c>
-      <c r="M8" s="4">
+      <c r="G8">
+        <v>98</v>
+      </c>
+      <c r="H8">
+        <v>4953</v>
+      </c>
+      <c r="I8" s="7">
+        <v>123</v>
+      </c>
+      <c r="J8" s="8">
+        <v>5461</v>
+      </c>
+      <c r="K8">
+        <v>122</v>
+      </c>
+      <c r="L8">
+        <v>6731</v>
+      </c>
+      <c r="M8" s="5">
         <v>95</v>
       </c>
-      <c r="N8" s="4">
+      <c r="N8" s="6">
         <v>4826</v>
       </c>
-      <c r="O8" s="5">
+      <c r="O8" s="9">
         <v>137</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="9">
         <v>5334</v>
       </c>
       <c r="Q8" s="5">
@@ -1073,22 +1076,20 @@
       <c r="R8" s="6">
         <v>6604</v>
       </c>
-      <c r="U8" s="9"/>
-      <c r="V8" s="9"/>
+      <c r="U8" s="5">
+        <v>4464</v>
+      </c>
+      <c r="V8" s="6">
+        <v>220218</v>
+      </c>
       <c r="W8" s="5">
-        <v>4464</v>
+        <v>53</v>
       </c>
       <c r="X8" s="6">
-        <v>220218</v>
-      </c>
-      <c r="Y8" s="5">
-        <v>53</v>
-      </c>
-      <c r="Z8" s="6">
         <v>2950</v>
       </c>
     </row>
-    <row r="9" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>43</v>
       </c>
@@ -1107,34 +1108,34 @@
       <c r="F9" s="6">
         <v>12192</v>
       </c>
-      <c r="G9" s="5">
-        <v>628</v>
-      </c>
-      <c r="H9" s="6">
-        <v>13824</v>
-      </c>
-      <c r="I9" s="4">
-        <v>440</v>
-      </c>
-      <c r="J9" s="4">
-        <v>12096</v>
-      </c>
-      <c r="K9" s="5">
-        <v>408</v>
-      </c>
-      <c r="L9" s="6">
-        <v>13152</v>
-      </c>
-      <c r="M9" s="4">
+      <c r="G9">
+        <v>410</v>
+      </c>
+      <c r="H9">
+        <v>13776</v>
+      </c>
+      <c r="I9" s="7">
+        <v>396</v>
+      </c>
+      <c r="J9" s="8">
+        <v>12048</v>
+      </c>
+      <c r="K9">
+        <v>372</v>
+      </c>
+      <c r="L9">
+        <v>13104</v>
+      </c>
+      <c r="M9" s="5">
         <v>394</v>
       </c>
-      <c r="N9" s="4">
+      <c r="N9" s="6">
         <v>13728</v>
       </c>
-      <c r="O9" s="5">
+      <c r="O9" s="9">
         <v>466</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9" s="9">
         <v>12000</v>
       </c>
       <c r="Q9" s="5">
@@ -1143,22 +1144,20 @@
       <c r="R9" s="6">
         <v>13056</v>
       </c>
-      <c r="U9" s="9"/>
-      <c r="V9" s="9"/>
+      <c r="U9" s="5">
+        <v>1811</v>
+      </c>
+      <c r="V9" s="6">
+        <v>117936</v>
+      </c>
       <c r="W9" s="5">
-        <v>1811</v>
+        <v>218</v>
       </c>
       <c r="X9" s="6">
-        <v>117936</v>
-      </c>
-      <c r="Y9" s="5">
-        <v>218</v>
-      </c>
-      <c r="Z9" s="6">
         <v>10137</v>
       </c>
     </row>
-    <row r="10" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>45</v>
       </c>
@@ -1177,34 +1176,34 @@
       <c r="F10" s="6">
         <v>4930</v>
       </c>
-      <c r="G10" s="5">
-        <v>184</v>
-      </c>
-      <c r="H10" s="6">
-        <v>6090</v>
-      </c>
-      <c r="I10" s="4">
-        <v>162</v>
-      </c>
-      <c r="J10" s="4">
-        <v>6960</v>
-      </c>
-      <c r="K10" s="5">
-        <v>160</v>
-      </c>
-      <c r="L10" s="6">
-        <v>8555</v>
-      </c>
-      <c r="M10" s="4">
+      <c r="G10">
+        <v>118</v>
+      </c>
+      <c r="H10">
+        <v>5945</v>
+      </c>
+      <c r="I10" s="7">
+        <v>145</v>
+      </c>
+      <c r="J10" s="8">
+        <v>6815</v>
+      </c>
+      <c r="K10">
+        <v>145</v>
+      </c>
+      <c r="L10">
+        <v>8410</v>
+      </c>
+      <c r="M10" s="5">
         <v>105</v>
       </c>
-      <c r="N10" s="4">
+      <c r="N10" s="6">
         <v>5800</v>
       </c>
-      <c r="O10" s="5">
+      <c r="O10" s="9">
         <v>171</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="9">
         <v>6670</v>
       </c>
       <c r="Q10" s="5">
@@ -1213,22 +1212,20 @@
       <c r="R10" s="6">
         <v>8265</v>
       </c>
-      <c r="U10" s="9"/>
-      <c r="V10" s="9"/>
+      <c r="U10" s="5">
+        <v>4501</v>
+      </c>
+      <c r="V10" s="6">
+        <v>276660</v>
+      </c>
       <c r="W10" s="5">
-        <v>4501</v>
+        <v>57</v>
       </c>
       <c r="X10" s="6">
-        <v>276660</v>
-      </c>
-      <c r="Y10" s="5">
-        <v>57</v>
-      </c>
-      <c r="Z10" s="6">
         <v>2681</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45</v>
       </c>
@@ -1247,34 +1244,34 @@
       <c r="F11" s="8">
         <v>2107320</v>
       </c>
-      <c r="G11" s="7">
-        <v>24770</v>
-      </c>
-      <c r="H11" s="8">
-        <v>120060</v>
-      </c>
-      <c r="I11">
-        <v>26957</v>
-      </c>
-      <c r="J11">
-        <v>98220</v>
-      </c>
-      <c r="K11" s="7">
-        <v>26148</v>
-      </c>
-      <c r="L11" s="8">
-        <v>114480</v>
-      </c>
-      <c r="M11">
+      <c r="G11">
+        <v>4217</v>
+      </c>
+      <c r="H11">
+        <v>76860</v>
+      </c>
+      <c r="I11" s="7">
+        <v>3910</v>
+      </c>
+      <c r="J11" s="8">
+        <v>55020</v>
+      </c>
+      <c r="K11">
+        <v>3706</v>
+      </c>
+      <c r="L11">
+        <v>71280</v>
+      </c>
+      <c r="M11" s="7">
         <v>3851</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="8">
         <v>82740</v>
       </c>
-      <c r="O11" s="7">
+      <c r="O11" s="10">
         <v>4287</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="10">
         <v>54540</v>
       </c>
       <c r="Q11" s="7">
@@ -1283,22 +1280,22 @@
       <c r="R11" s="8">
         <v>76200</v>
       </c>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
+      <c r="S11"/>
+      <c r="T11"/>
+      <c r="U11" s="7">
+        <v>1314672</v>
+      </c>
+      <c r="V11" s="8">
+        <v>92313900</v>
+      </c>
       <c r="W11" s="7">
-        <v>1314672</v>
+        <v>34509</v>
       </c>
       <c r="X11" s="8">
-        <v>92313900</v>
-      </c>
-      <c r="Y11" s="7">
-        <v>34509</v>
-      </c>
-      <c r="Z11" s="8">
         <v>1385208</v>
       </c>
     </row>
-    <row r="12" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>53</v>
       </c>
@@ -1317,34 +1314,34 @@
       <c r="F12" s="6">
         <v>44891</v>
       </c>
-      <c r="G12" s="5">
-        <v>753</v>
-      </c>
-      <c r="H12" s="6">
-        <v>11713</v>
-      </c>
-      <c r="I12" s="4">
-        <v>633</v>
-      </c>
-      <c r="J12" s="4">
-        <v>8586</v>
-      </c>
-      <c r="K12" s="5">
-        <v>732</v>
-      </c>
-      <c r="L12" s="6">
-        <v>13939</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="G12">
+        <v>636</v>
+      </c>
+      <c r="H12">
+        <v>11660</v>
+      </c>
+      <c r="I12" s="7">
+        <v>594</v>
+      </c>
+      <c r="J12" s="8">
+        <v>8533</v>
+      </c>
+      <c r="K12">
+        <v>773</v>
+      </c>
+      <c r="L12">
+        <v>13886</v>
+      </c>
+      <c r="M12" s="5">
         <v>666</v>
       </c>
-      <c r="N12" s="4">
+      <c r="N12" s="6">
         <v>11607</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="9">
         <v>654</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="9">
         <v>8480</v>
       </c>
       <c r="Q12" s="5">
@@ -1353,22 +1350,20 @@
       <c r="R12" s="6">
         <v>13833</v>
       </c>
-      <c r="U12" s="9"/>
-      <c r="V12" s="9"/>
+      <c r="U12" s="5">
+        <v>10335</v>
+      </c>
+      <c r="V12" s="6">
+        <v>743484</v>
+      </c>
       <c r="W12" s="5">
-        <v>10335</v>
+        <v>985</v>
       </c>
       <c r="X12" s="6">
-        <v>743484</v>
-      </c>
-      <c r="Y12" s="5">
-        <v>985</v>
-      </c>
-      <c r="Z12" s="6">
         <v>37623</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>71</v>
       </c>
@@ -1387,34 +1382,34 @@
       <c r="F13" s="8">
         <v>73194</v>
       </c>
-      <c r="G13" s="7">
-        <v>13233</v>
-      </c>
-      <c r="H13" s="8">
-        <v>47388</v>
-      </c>
-      <c r="I13">
-        <v>13852</v>
-      </c>
-      <c r="J13">
-        <v>33198</v>
-      </c>
-      <c r="K13" s="7">
-        <v>12149</v>
-      </c>
-      <c r="L13" s="8">
-        <v>50226</v>
-      </c>
-      <c r="M13">
+      <c r="G13">
+        <v>13230</v>
+      </c>
+      <c r="H13">
+        <v>47256</v>
+      </c>
+      <c r="I13" s="7">
+        <v>12464</v>
+      </c>
+      <c r="J13" s="8">
+        <v>33066</v>
+      </c>
+      <c r="K13">
+        <v>13805</v>
+      </c>
+      <c r="L13">
+        <v>50094</v>
+      </c>
+      <c r="M13" s="7">
         <v>13962</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="8">
         <v>42306</v>
       </c>
-      <c r="O13" s="7">
+      <c r="O13" s="10">
         <v>12562</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="10">
         <v>28116</v>
       </c>
       <c r="Q13" s="7">
@@ -1423,22 +1418,22 @@
       <c r="R13" s="8">
         <v>45144</v>
       </c>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13" s="7">
+        <v>494797</v>
+      </c>
+      <c r="V13" s="8">
+        <v>36248454</v>
+      </c>
       <c r="W13" s="7">
-        <v>494797</v>
+        <v>4795</v>
       </c>
       <c r="X13" s="8">
-        <v>36248454</v>
-      </c>
-      <c r="Y13" s="7">
-        <v>4795</v>
-      </c>
-      <c r="Z13" s="8">
         <v>111391</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>73</v>
       </c>
@@ -1457,34 +1452,34 @@
       <c r="F14" s="6">
         <v>15572</v>
       </c>
-      <c r="G14" s="5">
-        <v>4711</v>
-      </c>
-      <c r="H14" s="6">
-        <v>17884</v>
-      </c>
-      <c r="I14" s="4">
-        <v>10378</v>
-      </c>
-      <c r="J14" s="4">
-        <v>21964</v>
-      </c>
-      <c r="K14" s="5">
-        <v>7338</v>
-      </c>
-      <c r="L14" s="6">
-        <v>28084</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="G14">
+        <v>5337</v>
+      </c>
+      <c r="H14">
+        <v>17816</v>
+      </c>
+      <c r="I14" s="7">
+        <v>7840</v>
+      </c>
+      <c r="J14" s="8">
+        <v>21896</v>
+      </c>
+      <c r="K14">
+        <v>10366</v>
+      </c>
+      <c r="L14">
+        <v>28016</v>
+      </c>
+      <c r="M14" s="5">
         <v>5819</v>
       </c>
-      <c r="N14" s="4">
+      <c r="N14" s="6">
         <v>17748</v>
       </c>
-      <c r="O14" s="5">
+      <c r="O14" s="9">
         <v>7862</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="9">
         <v>21828</v>
       </c>
       <c r="Q14" s="5">
@@ -1493,22 +1488,20 @@
       <c r="R14" s="6">
         <v>27948</v>
       </c>
-      <c r="U14" s="9"/>
-      <c r="V14" s="9"/>
+      <c r="U14" s="5">
+        <v>682829</v>
+      </c>
+      <c r="V14" s="6">
+        <v>53038844</v>
+      </c>
       <c r="W14" s="5">
-        <v>682829</v>
+        <v>1790</v>
       </c>
       <c r="X14" s="6">
-        <v>53038844</v>
-      </c>
-      <c r="Y14" s="5">
-        <v>1790</v>
-      </c>
-      <c r="Z14" s="6">
         <v>32778</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>139</v>
       </c>
@@ -1527,34 +1520,34 @@
       <c r="F15" s="8">
         <v>763518</v>
       </c>
-      <c r="G15" s="7">
-        <v>30335</v>
-      </c>
-      <c r="H15" s="8">
-        <v>294468</v>
-      </c>
-      <c r="I15">
-        <v>24957</v>
-      </c>
-      <c r="J15">
-        <v>233889</v>
-      </c>
-      <c r="K15" s="7">
-        <v>39468</v>
-      </c>
-      <c r="L15" s="8">
-        <v>330402</v>
-      </c>
-      <c r="M15">
+      <c r="G15">
+        <v>26606</v>
+      </c>
+      <c r="H15">
+        <v>281748</v>
+      </c>
+      <c r="I15" s="7">
+        <v>27114</v>
+      </c>
+      <c r="J15" s="8">
+        <v>221169</v>
+      </c>
+      <c r="K15">
+        <v>29107</v>
+      </c>
+      <c r="L15">
+        <v>317682</v>
+      </c>
+      <c r="M15" s="7">
         <v>26593</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="8">
         <v>281589</v>
       </c>
-      <c r="O15" s="7">
+      <c r="O15" s="10">
         <v>27670</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="10">
         <v>228801</v>
       </c>
       <c r="Q15" s="7">
@@ -1563,56 +1556,135 @@
       <c r="R15" s="8">
         <v>325314</v>
       </c>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15" s="7">
+        <v>350672</v>
+      </c>
+      <c r="V15" s="8">
+        <v>15326328</v>
+      </c>
       <c r="W15" s="7">
-        <v>350672</v>
+        <v>24848</v>
       </c>
       <c r="X15" s="8">
-        <v>15326328</v>
-      </c>
-      <c r="Y15" s="7">
-        <v>24848</v>
-      </c>
-      <c r="Z15" s="8">
         <v>952453</v>
       </c>
     </row>
-    <row r="16" spans="1:26" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:24" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3">
+      <c r="E16" s="1">
+        <f>SUM(E2:E15)</f>
+        <v>106310</v>
+      </c>
+      <c r="F16" s="3">
+        <f>SUM(F2:F15)</f>
+        <v>3207721</v>
+      </c>
+      <c r="G16" s="2">
+        <f>SUM(G2:G15)</f>
+        <v>53948</v>
+      </c>
+      <c r="H16" s="2">
         <f>SUM(H2:H15)</f>
-        <v>716011</v>
-      </c>
-      <c r="I16" s="1"/>
+        <v>643068</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" ref="I16:R16" si="0">SUM(I2:I15)</f>
+        <v>55809</v>
+      </c>
       <c r="J16" s="3">
-        <f>SUM(J2:J15)</f>
-        <v>613470</v>
-      </c>
-      <c r="K16" s="1"/>
-      <c r="L16" s="3">
-        <f>SUM(L2:L15)</f>
-        <v>777715</v>
-      </c>
-      <c r="N16" s="2">
-        <f>SUM(N2:N15)</f>
+        <f t="shared" si="0"/>
+        <v>540527</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="0"/>
+        <v>61621</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="0"/>
+        <v>704772</v>
+      </c>
+      <c r="M16" s="1">
+        <f t="shared" si="0"/>
+        <v>54581</v>
+      </c>
+      <c r="N16" s="3">
+        <f t="shared" si="0"/>
         <v>630091</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="3">
-        <f>SUM(P2:P15)</f>
+      <c r="O16" s="2">
+        <f t="shared" si="0"/>
+        <v>57885</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" si="0"/>
         <v>528783</v>
       </c>
-      <c r="Q16" s="1"/>
+      <c r="Q16" s="1">
+        <f t="shared" si="0"/>
+        <v>65703</v>
+      </c>
       <c r="R16" s="3">
-        <f>SUM(R2:R15)</f>
+        <f t="shared" si="0"/>
         <v>698515</v>
       </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="3"/>
+      <c r="T16" s="3"/>
+      <c r="U16" s="1">
+        <f>SUM(U2:U15)</f>
+        <v>3186581</v>
+      </c>
+      <c r="V16" s="3">
+        <f>SUM(V2:V15)</f>
+        <v>224564448</v>
+      </c>
+      <c r="W16" s="1">
+        <f>SUM(W2:W15)</f>
+        <v>69800</v>
+      </c>
+      <c r="X16" s="11"/>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H20"/>
+    </row>
+    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H21"/>
+    </row>
+    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H22"/>
+    </row>
+    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H23"/>
+    </row>
+    <row r="24" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H24"/>
+    </row>
+    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H25"/>
+    </row>
+    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H26"/>
+    </row>
+    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H27"/>
+    </row>
+    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H28"/>
+    </row>
+    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H29"/>
+    </row>
+    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H30"/>
+    </row>
+    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H31"/>
+    </row>
+    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H32"/>
+    </row>
+    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H33"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">

--- a/lockstep_algorithm/Results.xlsx
+++ b/lockstep_algorithm/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablum\Symbolic-SCCs\lockstep_algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B191231-22B8-467C-B8FD-49E21095AE32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B1EDF4-A881-4DE7-B41F-204A53331FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39485520-4A0B-427E-9E64-4FED19D4A5EB}"/>
   </bookViews>
@@ -84,7 +84,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,10 +188,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -190,11 +202,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -507,33 +521,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B78286C2-6484-4079-B3B6-3CDFA013CB9E}">
-  <dimension ref="A1:X33"/>
+  <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="14.77734375" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25" style="10" customWidth="1"/>
-    <col min="16" max="16" width="13.109375" style="10" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25" customWidth="1"/>
+    <col min="16" max="16" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13.109375" style="8" customWidth="1"/>
     <col min="19" max="19" width="20.77734375" style="7" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.88671875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.44140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="15.109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.5546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.109375" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -648,10 +662,10 @@
       <c r="N2" s="6">
         <v>1870</v>
       </c>
-      <c r="O2" s="9">
+      <c r="O2" s="4">
         <v>61</v>
       </c>
-      <c r="P2" s="9">
+      <c r="P2" s="4">
         <v>1232</v>
       </c>
       <c r="Q2" s="5">
@@ -716,10 +730,10 @@
       <c r="N3" s="8">
         <v>3799</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3">
         <v>91</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3">
         <v>3799</v>
       </c>
       <c r="Q3" s="7">
@@ -786,10 +800,10 @@
       <c r="N4" s="8">
         <v>11234</v>
       </c>
-      <c r="O4" s="10">
+      <c r="O4">
         <v>464</v>
       </c>
-      <c r="P4" s="10">
+      <c r="P4">
         <v>7790</v>
       </c>
       <c r="Q4" s="7">
@@ -856,10 +870,10 @@
       <c r="N5" s="8">
         <v>9077</v>
       </c>
-      <c r="O5" s="10">
+      <c r="O5">
         <v>784</v>
       </c>
-      <c r="P5" s="10">
+      <c r="P5">
         <v>5974</v>
       </c>
       <c r="Q5" s="7">
@@ -926,10 +940,10 @@
       <c r="N6" s="6">
         <v>4068</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="4">
         <v>115</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="4">
         <v>4520</v>
       </c>
       <c r="Q6" s="5">
@@ -994,10 +1008,10 @@
       <c r="N7" s="8">
         <v>139699</v>
       </c>
-      <c r="O7" s="10">
+      <c r="O7">
         <v>2561</v>
       </c>
-      <c r="P7" s="10">
+      <c r="P7">
         <v>139699</v>
       </c>
       <c r="Q7" s="7">
@@ -1064,10 +1078,10 @@
       <c r="N8" s="6">
         <v>4826</v>
       </c>
-      <c r="O8" s="9">
+      <c r="O8" s="4">
         <v>137</v>
       </c>
-      <c r="P8" s="9">
+      <c r="P8" s="4">
         <v>5334</v>
       </c>
       <c r="Q8" s="5">
@@ -1132,10 +1146,10 @@
       <c r="N9" s="6">
         <v>13728</v>
       </c>
-      <c r="O9" s="9">
+      <c r="O9" s="4">
         <v>466</v>
       </c>
-      <c r="P9" s="9">
+      <c r="P9" s="4">
         <v>12000</v>
       </c>
       <c r="Q9" s="5">
@@ -1200,10 +1214,10 @@
       <c r="N10" s="6">
         <v>5800</v>
       </c>
-      <c r="O10" s="9">
+      <c r="O10" s="4">
         <v>171</v>
       </c>
-      <c r="P10" s="9">
+      <c r="P10" s="4">
         <v>6670</v>
       </c>
       <c r="Q10" s="5">
@@ -1268,10 +1282,10 @@
       <c r="N11" s="8">
         <v>82740</v>
       </c>
-      <c r="O11" s="10">
+      <c r="O11">
         <v>4287</v>
       </c>
-      <c r="P11" s="10">
+      <c r="P11">
         <v>54540</v>
       </c>
       <c r="Q11" s="7">
@@ -1338,10 +1352,10 @@
       <c r="N12" s="6">
         <v>11607</v>
       </c>
-      <c r="O12" s="9">
+      <c r="O12" s="4">
         <v>654</v>
       </c>
-      <c r="P12" s="9">
+      <c r="P12" s="4">
         <v>8480</v>
       </c>
       <c r="Q12" s="5">
@@ -1406,10 +1420,10 @@
       <c r="N13" s="8">
         <v>42306</v>
       </c>
-      <c r="O13" s="10">
+      <c r="O13">
         <v>12562</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13">
         <v>28116</v>
       </c>
       <c r="Q13" s="7">
@@ -1476,10 +1490,10 @@
       <c r="N14" s="6">
         <v>17748</v>
       </c>
-      <c r="O14" s="9">
+      <c r="O14" s="4">
         <v>7862</v>
       </c>
-      <c r="P14" s="9">
+      <c r="P14" s="4">
         <v>21828</v>
       </c>
       <c r="Q14" s="5">
@@ -1544,10 +1558,10 @@
       <c r="N15" s="8">
         <v>281589</v>
       </c>
-      <c r="O15" s="10">
+      <c r="O15">
         <v>27670</v>
       </c>
-      <c r="P15" s="10">
+      <c r="P15">
         <v>228801</v>
       </c>
       <c r="Q15" s="7">
@@ -1571,121 +1585,80 @@
         <v>952453</v>
       </c>
     </row>
-    <row r="16" spans="1:24" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="E16" s="1">
+    <row r="16" spans="1:24" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="9"/>
+      <c r="E16" s="9">
         <f>SUM(E2:E15)</f>
         <v>106310</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="11">
         <f>SUM(F2:F15)</f>
         <v>3207721</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="10">
         <f>SUM(G2:G15)</f>
         <v>53948</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="10">
         <f>SUM(H2:H15)</f>
         <v>643068</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16" s="9">
         <f t="shared" ref="I16:R16" si="0">SUM(I2:I15)</f>
         <v>55809</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="11">
         <f t="shared" si="0"/>
         <v>540527</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="10">
         <f t="shared" si="0"/>
         <v>61621</v>
       </c>
-      <c r="L16" s="2">
+      <c r="L16" s="10">
         <f t="shared" si="0"/>
         <v>704772</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16" s="9">
         <f t="shared" si="0"/>
         <v>54581</v>
       </c>
-      <c r="N16" s="3">
+      <c r="N16" s="11">
         <f t="shared" si="0"/>
         <v>630091</v>
       </c>
-      <c r="O16" s="2">
+      <c r="O16" s="10">
         <f t="shared" si="0"/>
         <v>57885</v>
       </c>
-      <c r="P16" s="2">
+      <c r="P16" s="10">
         <f t="shared" si="0"/>
         <v>528783</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="Q16" s="9">
         <f t="shared" si="0"/>
         <v>65703</v>
       </c>
-      <c r="R16" s="3">
+      <c r="R16" s="11">
         <f t="shared" si="0"/>
         <v>698515</v>
       </c>
-      <c r="T16" s="3"/>
-      <c r="U16" s="1">
+      <c r="T16" s="11"/>
+      <c r="U16" s="9">
         <f>SUM(U2:U15)</f>
         <v>3186581</v>
       </c>
-      <c r="V16" s="3">
+      <c r="V16" s="11">
         <f>SUM(V2:V15)</f>
         <v>224564448</v>
       </c>
-      <c r="W16" s="1">
+      <c r="W16" s="9">
         <f>SUM(W2:W15)</f>
         <v>69800</v>
       </c>
-      <c r="X16" s="11"/>
+      <c r="X16" s="12"/>
     </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H20"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H21"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H22"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H23"/>
-    </row>
-    <row r="24" spans="8:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H24"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H25"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H26"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H27"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H28"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H29"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H30"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H31"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H32"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H33"/>
-    </row>
+    <row r="24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N15">
     <sortCondition ref="A2:A15"/>

--- a/lockstep_algorithm/Results.xlsx
+++ b/lockstep_algorithm/Results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ablum\Symbolic-SCCs\lockstep_algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsmj9\Documents\Datalogi\8. Semester\SCC Project\Code\Symbolic-SCCs\lockstep_algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8B1EDF4-A881-4DE7-B41F-204A53331FDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F816F741-6EFE-4294-ABCD-CE1B5100D90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{39485520-4A0B-427E-9E64-4FED19D4A5EB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{39485520-4A0B-427E-9E64-4FED19D4A5EB}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -85,7 +85,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
@@ -190,7 +190,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -524,7 +524,7 @@
   <dimension ref="A1:X24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1587,6 +1587,10 @@
     </row>
     <row r="16" spans="1:24" s="10" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="9"/>
+      <c r="D16" s="10">
+        <f>SUM(D2:D15)</f>
+        <v>352</v>
+      </c>
       <c r="E16" s="9">
         <f>SUM(E2:E15)</f>
         <v>106310</v>
